--- a/p_arrs/p_arr_1_row_20_20_5_col_2_lp_1_sym.xlsx
+++ b/p_arrs/p_arr_1_row_20_20_5_col_2_lp_1_sym.xlsx
@@ -18700,7 +18700,7 @@
         <v>1302</v>
       </c>
       <c r="B1302" t="n">
-        <v>0.00499999999999995</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="1303">
@@ -19060,7 +19060,7 @@
         <v>1347</v>
       </c>
       <c r="B1347" t="n">
-        <v>0.00499999999999995</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="1348">
